--- a/実数値ＧＡ評価用コマンド一覧.xlsx
+++ b/実数値ＧＡ評価用コマンド一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="46">
   <si>
     <t>-gn</t>
     <phoneticPr fontId="1"/>
@@ -158,6 +158,38 @@
   </si>
   <si>
     <t>sphere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-uecn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-pn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-cn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-lr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,21 +537,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="9" style="1"/>
     <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="18" max="29" width="10.375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -572,28 +604,52 @@
         <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -646,28 +702,52 @@
         <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -720,28 +800,52 @@
         <v>6</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -794,28 +898,52 @@
         <v>6</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -868,28 +996,52 @@
         <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -942,28 +1094,52 @@
         <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1016,28 +1192,52 @@
         <v>6</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,28 +1290,52 @@
         <v>14</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,28 +1388,52 @@
         <v>14</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,28 +1486,52 @@
         <v>14</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,28 +1584,52 @@
         <v>14</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,28 +1682,52 @@
         <v>14</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,28 +1780,52 @@
         <v>14</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,28 +1878,52 @@
         <v>14</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,28 +1976,52 @@
         <v>15</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1682,28 +2074,52 @@
         <v>15</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,28 +2172,52 @@
         <v>15</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,28 +2270,52 @@
         <v>15</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1904,28 +2368,52 @@
         <v>15</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1978,28 +2466,52 @@
         <v>15</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2052,24 +2564,48 @@
         <v>15</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
